--- a/ServiceGeneratorTool/DbSchema.xlsx
+++ b/ServiceGeneratorTool/DbSchema.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Personal\RestaurantManagement\restaurant-management-api\ServiceGeneratorTool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Restaurant\restaurant-management-api\ServiceGeneratorTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1C39E7-F060-424A-9C1D-65AABB89AE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC426937-1318-42EF-B3E1-151C31FFED57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5682C2DE-D9BC-4AE6-9095-A6F08CD2E77F}"/>
   </bookViews>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="150">
   <si>
     <t>TableName</t>
   </si>
@@ -120,9 +111,6 @@
     <t>Ngày sinh</t>
   </si>
   <si>
-    <t>Mã OTP</t>
-  </si>
-  <si>
     <t>Địa chỉ</t>
   </si>
   <si>
@@ -240,12 +228,6 @@
     <t>Tên nguyên liệu</t>
   </si>
   <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>Số lượng tồn kho</t>
-  </si>
-  <si>
     <t>Giá nhập</t>
   </si>
   <si>
@@ -283,6 +265,216 @@
   </si>
   <si>
     <t>Table</t>
+  </si>
+  <si>
+    <t>Transaction</t>
+  </si>
+  <si>
+    <t>TransactionId</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>TotalPrice</t>
+  </si>
+  <si>
+    <t>RelatedEntityId</t>
+  </si>
+  <si>
+    <t>CreatedBy</t>
+  </si>
+  <si>
+    <t>Mã giao dịch</t>
+  </si>
+  <si>
+    <t>Mã loại giao dịch</t>
+  </si>
+  <si>
+    <t>Mã item cần tăng/giảm</t>
+  </si>
+  <si>
+    <t>Số lượng cần tăng/giảm</t>
+  </si>
+  <si>
+    <t>TranType</t>
+  </si>
+  <si>
+    <t>Tăng/Giảm  (C,D)</t>
+  </si>
+  <si>
+    <t>Người thực hiện</t>
+  </si>
+  <si>
+    <t>HistoryId</t>
+  </si>
+  <si>
+    <t>ImportDate</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Ghi chú thêm</t>
+  </si>
+  <si>
+    <t>TransactionType</t>
+  </si>
+  <si>
+    <t>TranTypeId</t>
+  </si>
+  <si>
+    <t>TranTypeName</t>
+  </si>
+  <si>
+    <t>Tên loại giao dịch</t>
+  </si>
+  <si>
+    <t>Mã lịch sử xuất/nhập hàng</t>
+  </si>
+  <si>
+    <t>Tổng tiền xuất/nhập</t>
+  </si>
+  <si>
+    <t>Ngày xuất/nhập hàng</t>
+  </si>
+  <si>
+    <t>Đơn vị</t>
+  </si>
+  <si>
+    <t>HistoryType</t>
+  </si>
+  <si>
+    <t>Loại nhập/xuất (I,E)</t>
+  </si>
+  <si>
+    <t>WarehouseStock</t>
+  </si>
+  <si>
+    <t>StockId</t>
+  </si>
+  <si>
+    <t>ImportedAt</t>
+  </si>
+  <si>
+    <t>Số lượng còn lại của lô</t>
+  </si>
+  <si>
+    <t>Ngày nhập lô</t>
+  </si>
+  <si>
+    <t>ExpiredAt</t>
+  </si>
+  <si>
+    <t>Hạn sử dụng (nếu có)</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Ghi chú lô hàng</t>
+  </si>
+  <si>
+    <t>IsUsedUp</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>Đã dùng hết chưa</t>
+  </si>
+  <si>
+    <t>Mã kho</t>
+  </si>
+  <si>
+    <t>Warehouse</t>
+  </si>
+  <si>
+    <t>WarehouseId</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Tên kho</t>
+  </si>
+  <si>
+    <t>Vị trí</t>
+  </si>
+  <si>
+    <t>Mã liên kết kho</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>DepartmentId</t>
+  </si>
+  <si>
+    <t>DepartmentName</t>
+  </si>
+  <si>
+    <t>DepartmentAddress</t>
+  </si>
+  <si>
+    <t>Mã đơn vị nhập</t>
+  </si>
+  <si>
+    <t>MaterialIdList</t>
+  </si>
+  <si>
+    <t>Nguyên liệu được xuất/nhập {1, 2, 3, ...}</t>
+  </si>
+  <si>
+    <t>OTPId</t>
+  </si>
+  <si>
+    <t>OTPID</t>
+  </si>
+  <si>
+    <t>Nội dung OTP</t>
+  </si>
+  <si>
+    <t>Mã phòng ban</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>TypeId</t>
+  </si>
+  <si>
+    <t>TypeName</t>
+  </si>
+  <si>
+    <t>TypeValue</t>
+  </si>
+  <si>
+    <t>TypeKey</t>
+  </si>
+  <si>
+    <t>Mã loại hình</t>
+  </si>
+  <si>
+    <t>TypeID</t>
+  </si>
+  <si>
+    <t>Tên loại hình</t>
+  </si>
+  <si>
+    <t>Nội dung</t>
+  </si>
+  <si>
+    <t>Giá trị loại hình</t>
+  </si>
+  <si>
+    <t>DepartmentTypeId</t>
+  </si>
+  <si>
+    <t>Tên phòng ban</t>
+  </si>
+  <si>
+    <t>Loại phòng ban</t>
   </si>
 </sst>
 </file>
@@ -347,8 +539,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1BB7ED-A112-494B-BC7C-AC8397CA64F1}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -674,7 +868,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -758,7 +952,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -789,18 +983,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="14.25" customHeight="1">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -814,497 +1008,1085 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>11</v>
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
         <v>32</v>
       </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="4" t="s">
+      <c r="B24" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="4" t="s">
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="4" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="4" t="s">
+      <c r="C46" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="4" customFormat="1">
-      <c r="A29" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="4" t="s">
+      <c r="D46" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" s="4" t="s">
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="4" t="s">
+      <c r="B48" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="4" t="s">
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>82</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
+      </c>
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" t="s">
         <v>82</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B52" s="2" t="s">
+      <c r="C60" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>81</v>
+      <c r="B61" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A66" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B71" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" t="s">
+        <v>98</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>97</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>120</v>
+      </c>
+      <c r="B88" t="s">
+        <v>121</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>120</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>120</v>
+      </c>
+      <c r="B90" t="s">
+        <v>122</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>120</v>
+      </c>
+      <c r="B91" t="s">
+        <v>127</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" t="s">
+        <v>127</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>126</v>
+      </c>
+      <c r="B94" t="s">
+        <v>128</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>126</v>
+      </c>
+      <c r="B95" t="s">
+        <v>129</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>126</v>
+      </c>
+      <c r="B96" t="s">
+        <v>147</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>137</v>
+      </c>
+      <c r="B98" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>137</v>
+      </c>
+      <c r="B99" t="s">
+        <v>141</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>137</v>
+      </c>
+      <c r="B100" t="s">
+        <v>139</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>137</v>
+      </c>
+      <c r="B101" t="s">
+        <v>140</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>137</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/ServiceGeneratorTool/DbSchema.xlsx
+++ b/ServiceGeneratorTool/DbSchema.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Restaurant\restaurant-management-api\ServiceGeneratorTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC426937-1318-42EF-B3E1-151C31FFED57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EAAD1A-B5C9-456C-B79A-E36C68A0B63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5682C2DE-D9BC-4AE6-9095-A6F08CD2E77F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="181">
   <si>
     <t>TableName</t>
   </si>
@@ -174,9 +174,6 @@
     <t>Mã hóa đơn</t>
   </si>
   <si>
-    <t>Mã khách hàng (liên kết User)</t>
-  </si>
-  <si>
     <t>CreatedAt</t>
   </si>
   <si>
@@ -475,6 +472,102 @@
   </si>
   <si>
     <t>Loại phòng ban</t>
+  </si>
+  <si>
+    <t>ExpiryTime</t>
+  </si>
+  <si>
+    <t>Thời gian hết hạn của OTP</t>
+  </si>
+  <si>
+    <t>OTPType</t>
+  </si>
+  <si>
+    <t>Loại OTP</t>
+  </si>
+  <si>
+    <t>Trang thái của OTP</t>
+  </si>
+  <si>
+    <t>ErrorDefinition</t>
+  </si>
+  <si>
+    <t>ErrorId</t>
+  </si>
+  <si>
+    <t>ErrorName</t>
+  </si>
+  <si>
+    <t>Tên lỗi</t>
+  </si>
+  <si>
+    <t>Mã lỗi</t>
+  </si>
+  <si>
+    <t>mô tả</t>
+  </si>
+  <si>
+    <t>AutoId</t>
+  </si>
+  <si>
+    <t>Số tự tăng</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Sức chứa</t>
+  </si>
+  <si>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>Thời gian bắt đầu sử dụng chức năng</t>
+  </si>
+  <si>
+    <t>Thời gian kết thúc sử dụng chức năng</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>Số điện thoại khách hàng</t>
+  </si>
+  <si>
+    <t>Tên khách hàng</t>
+  </si>
+  <si>
+    <t>CusName</t>
+  </si>
+  <si>
+    <t>OrderTable</t>
+  </si>
+  <si>
+    <t>OrderTableId</t>
+  </si>
+  <si>
+    <t>Mã đặt bàn</t>
+  </si>
+  <si>
+    <t>Mã cơ sở</t>
+  </si>
+  <si>
+    <t>FunctionId</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>ParentId</t>
+  </si>
+  <si>
+    <t>Mã quyền cha (nếu để trống thì là quyền cha)</t>
+  </si>
+  <si>
+    <t>Mã chức năng của người dùng</t>
+  </si>
+  <si>
+    <t>EndTime</t>
   </si>
 </sst>
 </file>
@@ -857,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1BB7ED-A112-494B-BC7C-AC8397CA64F1}">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -868,7 +961,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -988,13 +1081,13 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>133</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1016,13 +1109,13 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1030,13 +1123,13 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>133</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1064,1029 +1157,1319 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>11</v>
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>32</v>
+      <c r="A21" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>33</v>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>175</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
-      <c r="D24" t="s">
-        <v>36</v>
+      <c r="D24" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>38</v>
+        <v>4</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>164</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>177</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" t="s">
-        <v>53</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>72</v>
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>55</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>62</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="C43" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" t="s">
-        <v>39</v>
+        <v>46</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C46" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
         <v>59</v>
-      </c>
-      <c r="C51" t="s">
-        <v>40</v>
-      </c>
-      <c r="D51" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>79</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>79</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>79</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>79</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>80</v>
-      </c>
-      <c r="B59" t="s">
-        <v>98</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>87</v>
+        <v>39</v>
+      </c>
+      <c r="C58" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>82</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>68</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>90</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>35</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>63</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" t="s">
         <v>80</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B65" t="s">
-        <v>93</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A66" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C67" s="2" t="s">
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B71" t="s">
-        <v>105</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>130</v>
+      <c r="D73" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>97</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>99</v>
+        <v>79</v>
+      </c>
+      <c r="B75" t="s">
+        <v>83</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>97</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>42</v>
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>84</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>108</v>
+        <v>94</v>
+      </c>
+      <c r="B78" t="s">
+        <v>92</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="14.25" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B79" t="s">
-        <v>121</v>
+        <v>94</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="4" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="4" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="4" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>112</v>
+        <v>94</v>
+      </c>
+      <c r="B84" t="s">
+        <v>104</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>118</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" t="s">
+        <v>97</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>120</v>
-      </c>
-      <c r="B88" t="s">
-        <v>121</v>
+        <v>96</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B92" t="s">
         <v>120</v>
       </c>
-      <c r="B89" t="s">
-        <v>5</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" t="s">
-        <v>120</v>
-      </c>
-      <c r="B90" t="s">
-        <v>122</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" t="s">
-        <v>120</v>
-      </c>
-      <c r="B91" t="s">
-        <v>127</v>
-      </c>
-      <c r="C91" t="s">
-        <v>4</v>
-      </c>
-      <c r="D91" t="s">
-        <v>136</v>
+      <c r="C92" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" t="s">
-        <v>126</v>
-      </c>
-      <c r="B93" t="s">
-        <v>127</v>
+      <c r="A93" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" t="s">
-        <v>126</v>
-      </c>
-      <c r="B94" t="s">
-        <v>128</v>
+      <c r="A94" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" t="s">
-        <v>126</v>
-      </c>
-      <c r="B95" t="s">
-        <v>129</v>
+      <c r="A95" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" t="s">
-        <v>126</v>
-      </c>
-      <c r="B96" t="s">
-        <v>147</v>
+      <c r="A96" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>149</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" t="s">
-        <v>137</v>
-      </c>
-      <c r="B98" t="s">
-        <v>138</v>
+      <c r="A98" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" t="s">
-        <v>137</v>
-      </c>
-      <c r="B99" t="s">
-        <v>141</v>
+      <c r="A99" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
-        <v>137</v>
-      </c>
-      <c r="B100" t="s">
-        <v>139</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B101" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
+        <v>119</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>119</v>
+      </c>
+      <c r="B103" t="s">
+        <v>121</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>119</v>
+      </c>
+      <c r="B104" t="s">
+        <v>126</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>125</v>
+      </c>
+      <c r="B106" t="s">
+        <v>126</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>125</v>
+      </c>
+      <c r="B107" t="s">
+        <v>127</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>125</v>
+      </c>
+      <c r="B108" t="s">
+        <v>128</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>125</v>
+      </c>
+      <c r="B109" t="s">
+        <v>146</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>136</v>
+      </c>
+      <c r="B111" t="s">
         <v>137</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C111" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>136</v>
+      </c>
+      <c r="B112" t="s">
+        <v>140</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>136</v>
+      </c>
+      <c r="B113" t="s">
+        <v>138</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>136</v>
+      </c>
+      <c r="B114" t="s">
+        <v>139</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>136</v>
+      </c>
+      <c r="B115" t="s">
         <v>3</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>145</v>
+      <c r="C115" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>154</v>
+      </c>
+      <c r="B117" t="s">
+        <v>160</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>154</v>
+      </c>
+      <c r="B118" t="s">
+        <v>155</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>154</v>
+      </c>
+      <c r="B119" t="s">
+        <v>156</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>154</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>171</v>
+      </c>
+      <c r="B122" t="s">
+        <v>172</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>171</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>171</v>
+      </c>
+      <c r="B124" t="s">
+        <v>167</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>171</v>
+      </c>
+      <c r="B125" t="s">
+        <v>19</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>171</v>
+      </c>
+      <c r="B126" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/ServiceGeneratorTool/DbSchema.xlsx
+++ b/ServiceGeneratorTool/DbSchema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Restaurant\restaurant-management-api\ServiceGeneratorTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EAAD1A-B5C9-456C-B79A-E36C68A0B63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385578E0-4F8F-4F51-BF9D-390933BAB375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5682C2DE-D9BC-4AE6-9095-A6F08CD2E77F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="197">
   <si>
     <t>TableName</t>
   </si>
@@ -120,9 +120,6 @@
     <t>RoleName</t>
   </si>
   <si>
-    <t>UserFunctionIdList</t>
-  </si>
-  <si>
     <t>Tên quyền</t>
   </si>
   <si>
@@ -568,6 +565,57 @@
   </si>
   <si>
     <t>EndTime</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>RefreshToken</t>
+  </si>
+  <si>
+    <t>RefreshTokenId</t>
+  </si>
+  <si>
+    <t>ExpiresAt</t>
+  </si>
+  <si>
+    <t>CreatedByIp</t>
+  </si>
+  <si>
+    <t>RevokedAt</t>
+  </si>
+  <si>
+    <t>ReplacedByToken</t>
+  </si>
+  <si>
+    <t>Mã refresh token</t>
+  </si>
+  <si>
+    <t>Chuỗi refresh token</t>
+  </si>
+  <si>
+    <t>Hạn dùng</t>
+  </si>
+  <si>
+    <t>IP đăng nhập</t>
+  </si>
+  <si>
+    <t>Thu hồi chưa</t>
+  </si>
+  <si>
+    <t>Nếu bị thay thì bị thay bởi token nào</t>
+  </si>
+  <si>
+    <t>Token còn hợp lệ không</t>
+  </si>
+  <si>
+    <t>FunctionCode</t>
+  </si>
+  <si>
+    <t>Định danh chức năng</t>
+  </si>
+  <si>
+    <t>FunctionIdList</t>
   </si>
 </sst>
 </file>
@@ -950,10 +998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1BB7ED-A112-494B-BC7C-AC8397CA64F1}">
-  <dimension ref="A1:D126"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1081,13 +1129,13 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>132</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1109,32 +1157,32 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -1148,1328 +1196,1454 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>150</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s">
-        <v>175</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>179</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>175</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="B30" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" t="s">
-        <v>180</v>
-      </c>
-      <c r="C31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" t="s">
-        <v>166</v>
+      <c r="A31" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" t="s">
-        <v>177</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
-      <c r="D34" t="s">
-        <v>36</v>
+      <c r="D34" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" t="s">
-        <v>38</v>
+        <v>4</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>196</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>45</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>179</v>
       </c>
       <c r="C41" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" t="s">
-        <v>170</v>
-      </c>
-      <c r="C43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>71</v>
+        <v>33</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>54</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>166</v>
       </c>
       <c r="C52" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="C53" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>61</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D55" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>62</v>
-      </c>
-      <c r="B56" t="s">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B57" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>62</v>
-      </c>
-      <c r="B58" t="s">
-        <v>39</v>
-      </c>
-      <c r="C58" t="s">
-        <v>40</v>
-      </c>
-      <c r="D58" t="s">
-        <v>66</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
         <v>35</v>
-      </c>
-      <c r="C61" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C62" t="s">
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D63" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>78</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
+      </c>
+      <c r="B65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>78</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>78</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
+      </c>
+      <c r="B67" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>78</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
-        <v>78</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>163</v>
+        <v>61</v>
+      </c>
+      <c r="B68" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" t="s">
+        <v>39</v>
+      </c>
+      <c r="D68" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>66</v>
+      </c>
+      <c r="B70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>85</v>
+        <v>34</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B72" t="s">
-        <v>97</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B73" t="s">
-        <v>81</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74" t="s">
-        <v>89</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>90</v>
+        <v>57</v>
+      </c>
+      <c r="C73" t="s">
+        <v>39</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>79</v>
-      </c>
-      <c r="B75" t="s">
-        <v>83</v>
+        <v>77</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" t="s">
         <v>79</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="2" t="s">
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>78</v>
+      </c>
+      <c r="B83" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>78</v>
+      </c>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>78</v>
+      </c>
+      <c r="B85" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>78</v>
+      </c>
+      <c r="B86" t="s">
+        <v>83</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B78" t="s">
-        <v>92</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A79" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B84" t="s">
-        <v>104</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
-        <v>96</v>
-      </c>
-      <c r="B87" t="s">
-        <v>97</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
-        <v>96</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="C88" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" t="s">
-        <v>96</v>
+    <row r="89" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A89" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>103</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B92" t="s">
-        <v>120</v>
+        <v>93</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>58</v>
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>103</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>95</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>95</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B95" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B96" s="5" t="s">
+      <c r="C101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" t="s">
+        <v>119</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C96" s="2" t="s">
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D106" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B97" s="5" t="s">
+      <c r="C107" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D97" s="2" t="s">
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B108" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B98" s="5" t="s">
+      <c r="C108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D98" s="2" t="s">
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B109" s="5" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B99" s="5" t="s">
+      <c r="C109" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" t="s">
-        <v>119</v>
-      </c>
-      <c r="B101" t="s">
-        <v>120</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" t="s">
-        <v>119</v>
-      </c>
-      <c r="B102" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" t="s">
-        <v>119</v>
-      </c>
-      <c r="B103" t="s">
-        <v>121</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" t="s">
-        <v>119</v>
-      </c>
-      <c r="B104" t="s">
-        <v>126</v>
-      </c>
-      <c r="C104" t="s">
-        <v>4</v>
-      </c>
-      <c r="D104" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" t="s">
-        <v>125</v>
-      </c>
-      <c r="B106" t="s">
-        <v>126</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" t="s">
-        <v>125</v>
-      </c>
-      <c r="B107" t="s">
-        <v>127</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" t="s">
-        <v>125</v>
-      </c>
-      <c r="B108" t="s">
-        <v>128</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" t="s">
-        <v>125</v>
-      </c>
-      <c r="B109" t="s">
-        <v>146</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B111" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B113" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B114" t="s">
-        <v>139</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" t="s">
-        <v>136</v>
-      </c>
-      <c r="B115" t="s">
-        <v>3</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>144</v>
+        <v>125</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
+      <c r="A116" t="s">
+        <v>124</v>
+      </c>
+      <c r="B116" t="s">
+        <v>125</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="B117" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>158</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="B119" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" t="s">
-        <v>154</v>
-      </c>
-      <c r="B120" t="s">
-        <v>3</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>135</v>
+      </c>
+      <c r="B121" t="s">
+        <v>136</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="B122" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>171</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>71</v>
+        <v>135</v>
+      </c>
+      <c r="B123" t="s">
+        <v>137</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="B124" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
+        <v>135</v>
+      </c>
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>153</v>
+      </c>
+      <c r="B127" t="s">
+        <v>159</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>153</v>
+      </c>
+      <c r="B128" t="s">
+        <v>154</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>153</v>
+      </c>
+      <c r="B129" t="s">
+        <v>155</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>153</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>170</v>
+      </c>
+      <c r="B132" t="s">
         <v>171</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C132" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>170</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>170</v>
+      </c>
+      <c r="B134" t="s">
+        <v>166</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>170</v>
+      </c>
+      <c r="B135" t="s">
         <v>19</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" t="s">
-        <v>171</v>
-      </c>
-      <c r="B126" t="s">
-        <v>126</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>174</v>
+      <c r="C135" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>170</v>
+      </c>
+      <c r="B136" t="s">
+        <v>125</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/ServiceGeneratorTool/DbSchema.xlsx
+++ b/ServiceGeneratorTool/DbSchema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Restaurant\restaurant-management-api\ServiceGeneratorTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385578E0-4F8F-4F51-BF9D-390933BAB375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05E3705-428E-434E-9849-7273DEE3EF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5682C2DE-D9BC-4AE6-9095-A6F08CD2E77F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="217">
   <si>
     <t>TableName</t>
   </si>
@@ -489,9 +489,6 @@
     <t>ErrorDefinition</t>
   </si>
   <si>
-    <t>ErrorId</t>
-  </si>
-  <si>
     <t>ErrorName</t>
   </si>
   <si>
@@ -504,9 +501,6 @@
     <t>mô tả</t>
   </si>
   <si>
-    <t>AutoId</t>
-  </si>
-  <si>
     <t>Số tự tăng</t>
   </si>
   <si>
@@ -616,6 +610,72 @@
   </si>
   <si>
     <t>FunctionIdList</t>
+  </si>
+  <si>
+    <t>FunctionGrantPermission</t>
+  </si>
+  <si>
+    <t>GrantorId</t>
+  </si>
+  <si>
+    <t>CanGrant</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>ErrorDefinitionId</t>
+  </si>
+  <si>
+    <t>ErrorCode</t>
+  </si>
+  <si>
+    <t>GrantorType</t>
+  </si>
+  <si>
+    <t>Ai là người có quyền cấp quyền (UserId hoặc RoleId)</t>
+  </si>
+  <si>
+    <t>Chức năng được cấp</t>
+  </si>
+  <si>
+    <t>Có thể gán quyền này cho người khác không?</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>loại grantor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FunctionGrantPermissionId </t>
+  </si>
+  <si>
+    <t>IsSuperAdmin</t>
+  </si>
+  <si>
+    <t>LastLoginAt</t>
+  </si>
+  <si>
+    <t>CanGrantPermission</t>
+  </si>
+  <si>
+    <t>Có quyền tuyệt đối hay không</t>
+  </si>
+  <si>
+    <t>Đăng nhập vào</t>
+  </si>
+  <si>
+    <t>Có thể gán quyền hay không</t>
+  </si>
+  <si>
+    <t>GrantAt</t>
+  </si>
+  <si>
+    <t>Người gán quyền</t>
+  </si>
+  <si>
+    <t>Thời điểm gán</t>
   </si>
 </sst>
 </file>
@@ -998,18 +1058,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1BB7ED-A112-494B-BC7C-AC8397CA64F1}">
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1166,158 +1226,158 @@
         <v>134</v>
       </c>
     </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>211</v>
+      </c>
+    </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>181</v>
-      </c>
-      <c r="B15" t="s">
-        <v>180</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>190</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" t="s">
         <v>181</v>
       </c>
-      <c r="B19" t="s">
-        <v>186</v>
-      </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>193</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="B22" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>133</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1325,13 +1385,13 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1339,13 +1399,13 @@
         <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>152</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1353,173 +1413,173 @@
         <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>148</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>149</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="A32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
+        <v>173</v>
+      </c>
+      <c r="B33" t="s">
+        <v>192</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
         <v>7</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B36" t="s">
         <v>8</v>
       </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" t="s">
-        <v>174</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>23</v>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
-      <c r="D37" t="s">
-        <v>26</v>
+      <c r="D37" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" t="s">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
         <v>196</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" t="s">
-        <v>32</v>
+        <v>4</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="C40" t="s">
         <v>22</v>
       </c>
-      <c r="D40" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" t="s">
-        <v>179</v>
-      </c>
-      <c r="C41" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" t="s">
-        <v>165</v>
+      <c r="D40" s="3" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1527,83 +1587,83 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>177</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>194</v>
       </c>
       <c r="C44" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="C47" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>33</v>
-      </c>
-      <c r="B48" t="s">
-        <v>41</v>
-      </c>
-      <c r="C48" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" t="s">
-        <v>42</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1611,97 +1671,97 @@
         <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D52" t="s">
-        <v>167</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>168</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>45</v>
-      </c>
-      <c r="B55" t="s">
-        <v>50</v>
-      </c>
-      <c r="C55" t="s">
-        <v>39</v>
-      </c>
-      <c r="D55" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>70</v>
+      <c r="B56" t="s">
+        <v>46</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1709,335 +1769,335 @@
         <v>45</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>53</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" t="s">
+        <v>167</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C59" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C60" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D60" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>54</v>
-      </c>
-      <c r="B61" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="C61" t="s">
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
         <v>54</v>
       </c>
-      <c r="B62" t="s">
-        <v>57</v>
-      </c>
-      <c r="C62" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>54</v>
-      </c>
-      <c r="B63" t="s">
-        <v>59</v>
-      </c>
-      <c r="C63" t="s">
-        <v>39</v>
-      </c>
-      <c r="D63" t="s">
-        <v>60</v>
+      <c r="B64" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C65" t="s">
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B68" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C68" t="s">
         <v>39</v>
       </c>
       <c r="D68" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C70" t="s">
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B72" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C72" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B73" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C73" t="s">
         <v>39</v>
       </c>
       <c r="D73" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
+      </c>
+      <c r="B75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>77</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
+      </c>
+      <c r="B76" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
+      </c>
+      <c r="B77" t="s">
+        <v>62</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
+        <v>66</v>
+      </c>
+      <c r="B78" t="s">
+        <v>57</v>
+      </c>
+      <c r="C78" t="s">
+        <v>39</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
-        <v>77</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>162</v>
+      <c r="B80" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>78</v>
-      </c>
-      <c r="B81" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>78</v>
-      </c>
-      <c r="B82" t="s">
-        <v>96</v>
+        <v>77</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>78</v>
-      </c>
-      <c r="B83" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>78</v>
-      </c>
-      <c r="B84" t="s">
-        <v>88</v>
+        <v>77</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
-        <v>78</v>
-      </c>
-      <c r="B85" t="s">
-        <v>82</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2045,111 +2105,111 @@
         <v>78</v>
       </c>
       <c r="B86" t="s">
+        <v>79</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>78</v>
+      </c>
+      <c r="B87" t="s">
+        <v>96</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>78</v>
+      </c>
+      <c r="B88" t="s">
+        <v>80</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>78</v>
+      </c>
+      <c r="B89" t="s">
+        <v>88</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>78</v>
+      </c>
+      <c r="B90" t="s">
+        <v>82</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>78</v>
+      </c>
+      <c r="B91" t="s">
         <v>83</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" s="2" t="s">
+      <c r="C91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88" t="s">
-        <v>91</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A89" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B93" s="5" t="s">
-        <v>83</v>
+      <c r="B93" t="s">
+        <v>91</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="14.25" customHeight="1">
       <c r="A94" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
-        <v>103</v>
+      <c r="B94" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2157,125 +2217,125 @@
         <v>93</v>
       </c>
       <c r="B95" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B99" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D95" s="2" t="s">
+      <c r="C100" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" t="s">
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
         <v>95</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B102" t="s">
         <v>96</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="C102" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
         <v>95</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B103" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D98" s="2" t="s">
+      <c r="C103" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
         <v>95</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B104" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D99" s="2" t="s">
+      <c r="C104" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B102" t="s">
-        <v>119</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2283,27 +2343,27 @@
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B107" s="5" t="s">
-        <v>110</v>
+      <c r="B107" t="s">
+        <v>119</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2311,13 +2371,13 @@
         <v>105</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2325,246 +2385,256 @@
         <v>105</v>
       </c>
       <c r="B109" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B114" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" t="s">
-        <v>118</v>
-      </c>
-      <c r="B111" t="s">
-        <v>119</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" t="s">
-        <v>118</v>
-      </c>
-      <c r="B112" t="s">
-        <v>5</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" t="s">
-        <v>118</v>
-      </c>
-      <c r="B113" t="s">
-        <v>120</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" t="s">
-        <v>118</v>
-      </c>
-      <c r="B114" t="s">
-        <v>125</v>
-      </c>
-      <c r="C114" t="s">
-        <v>4</v>
-      </c>
-      <c r="D114" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>145</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>147</v>
+        <v>125</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" t="s">
+        <v>145</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
         <v>135</v>
       </c>
-      <c r="B124" t="s">
-        <v>138</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" t="s">
-        <v>135</v>
-      </c>
-      <c r="B125" t="s">
-        <v>3</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
+      <c r="B126" t="s">
+        <v>136</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B127" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B128" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B129" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B130" t="s">
         <v>3</v>
@@ -2573,77 +2643,221 @@
         <v>6</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>158</v>
-      </c>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B132" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>170</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>70</v>
+        <v>153</v>
+      </c>
+      <c r="B133" t="s">
+        <v>200</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>71</v>
+        <v>156</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B134" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
+        <v>153</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>168</v>
+      </c>
+      <c r="B137" t="s">
+        <v>169</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B135" t="s">
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>168</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>168</v>
+      </c>
+      <c r="B139" t="s">
+        <v>164</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>168</v>
+      </c>
+      <c r="B140" t="s">
         <v>19</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D135" s="2" t="s">
+      <c r="C140" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" t="s">
-        <v>170</v>
-      </c>
-      <c r="B136" t="s">
+      <c r="B141" t="s">
         <v>125</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>173</v>
+      <c r="C141" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>195</v>
+      </c>
+      <c r="B143" t="s">
+        <v>207</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A144" t="s">
+        <v>195</v>
+      </c>
+      <c r="B144" t="s">
+        <v>196</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>195</v>
+      </c>
+      <c r="B145" t="s">
+        <v>172</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>195</v>
+      </c>
+      <c r="B146" t="s">
+        <v>197</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>195</v>
+      </c>
+      <c r="B147" t="s">
+        <v>198</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>195</v>
+      </c>
+      <c r="B148" t="s">
+        <v>201</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/ServiceGeneratorTool/DbSchema.xlsx
+++ b/ServiceGeneratorTool/DbSchema.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Restaurant\restaurant-management-api\ServiceGeneratorTool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\School\restaurant-management-api\ServiceGeneratorTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05E3705-428E-434E-9849-7273DEE3EF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BF5598-D9D3-484D-B880-1E3B91EDFCF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5682C2DE-D9BC-4AE6-9095-A6F08CD2E77F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="220">
   <si>
     <t>TableName</t>
   </si>
@@ -429,9 +429,6 @@
     <t>Nội dung OTP</t>
   </si>
   <si>
-    <t>Mã phòng ban</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -462,15 +459,6 @@
     <t>Giá trị loại hình</t>
   </si>
   <si>
-    <t>DepartmentTypeId</t>
-  </si>
-  <si>
-    <t>Tên phòng ban</t>
-  </si>
-  <si>
-    <t>Loại phòng ban</t>
-  </si>
-  <si>
     <t>ExpiryTime</t>
   </si>
   <si>
@@ -676,6 +664,27 @@
   </si>
   <si>
     <t>Thời điểm gán</t>
+  </si>
+  <si>
+    <t>Mã Cơ sở</t>
+  </si>
+  <si>
+    <t>Tên cơ sở</t>
+  </si>
+  <si>
+    <t>ManagerId</t>
+  </si>
+  <si>
+    <t>Id quản lý</t>
+  </si>
+  <si>
+    <t>int?</t>
+  </si>
+  <si>
+    <t>DepartmentPhoto</t>
+  </si>
+  <si>
+    <t>Ảnh cơ sở</t>
   </si>
 </sst>
 </file>
@@ -1058,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1BB7ED-A112-494B-BC7C-AC8397CA64F1}">
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1223,7 +1232,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1231,13 +1240,13 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1245,13 +1254,13 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1259,32 +1268,32 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -1298,77 +1307,77 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B19" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" t="s">
         <v>179</v>
-      </c>
-      <c r="B21" t="s">
-        <v>183</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B22" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -1377,7 +1386,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1427,13 +1436,13 @@
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1447,7 +1456,7 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1455,21 +1464,21 @@
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" t="s">
         <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B32" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -1480,21 +1489,21 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>9</v>
@@ -1523,7 +1532,7 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1531,7 +1540,7 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -1559,13 +1568,13 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1573,13 +1582,13 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C40" t="s">
         <v>22</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1615,7 +1624,7 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
@@ -1629,13 +1638,13 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C45" t="s">
         <v>22</v>
       </c>
       <c r="D45" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1643,13 +1652,13 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C46" t="s">
         <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1657,13 +1666,13 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1769,13 +1778,13 @@
         <v>45</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1783,13 +1792,13 @@
         <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2091,13 +2100,13 @@
         <v>77</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2517,7 +2526,7 @@
         <v>4</v>
       </c>
       <c r="D119" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2531,7 +2540,7 @@
         <v>4</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>134</v>
+        <v>213</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2545,7 +2554,7 @@
         <v>6</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2567,38 +2576,38 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>4</v>
+        <v>217</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" t="s">
-        <v>135</v>
-      </c>
-      <c r="B126" t="s">
-        <v>136</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>141</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>218</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
+        <v>134</v>
+      </c>
+      <c r="B127" t="s">
         <v>135</v>
       </c>
-      <c r="B127" t="s">
-        <v>139</v>
-      </c>
       <c r="C127" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>140</v>
@@ -2606,38 +2615,38 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B129" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B130" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>6</v>
@@ -2647,217 +2656,231 @@
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
+      <c r="A131" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" t="s">
-        <v>153</v>
-      </c>
-      <c r="B132" t="s">
-        <v>199</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>158</v>
-      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B133" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B134" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
+        <v>149</v>
+      </c>
+      <c r="B135" t="s">
+        <v>150</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>149</v>
+      </c>
+      <c r="B136" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B135" t="s">
-        <v>3</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" t="s">
-        <v>168</v>
-      </c>
-      <c r="B137" t="s">
-        <v>169</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>168</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>70</v>
+        <v>164</v>
+      </c>
+      <c r="B138" t="s">
+        <v>165</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>71</v>
+        <v>166</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>168</v>
-      </c>
-      <c r="B139" t="s">
         <v>164</v>
       </c>
+      <c r="B139" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="C139" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>165</v>
+        <v>71</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B140" t="s">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B141" t="s">
+        <v>19</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>164</v>
+      </c>
+      <c r="B142" t="s">
         <v>125</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" t="s">
-        <v>195</v>
-      </c>
-      <c r="B143" t="s">
-        <v>207</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="15.75" customHeight="1">
+      <c r="C142" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B144" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15.75" customHeight="1">
       <c r="A145" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B145" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B146" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B147" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B148" t="s">
+        <v>194</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C148" t="s">
-        <v>6</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>206</v>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>191</v>
+      </c>
+      <c r="B149" t="s">
+        <v>197</v>
+      </c>
+      <c r="C149" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/ServiceGeneratorTool/DbSchema.xlsx
+++ b/ServiceGeneratorTool/DbSchema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\School\restaurant-management-api\ServiceGeneratorTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BF5598-D9D3-484D-B880-1E3B91EDFCF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A28950D-0826-44A9-ABBC-0D70452C7F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5682C2DE-D9BC-4AE6-9095-A6F08CD2E77F}"/>
   </bookViews>
@@ -597,9 +597,6 @@
     <t>Định danh chức năng</t>
   </si>
   <si>
-    <t>FunctionIdList</t>
-  </si>
-  <si>
     <t>FunctionGrantPermission</t>
   </si>
   <si>
@@ -685,6 +682,9 @@
   </si>
   <si>
     <t>Ảnh cơ sở</t>
+  </si>
+  <si>
+    <t>FunctionCodeList</t>
   </si>
 </sst>
 </file>
@@ -1069,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1BB7ED-A112-494B-BC7C-AC8397CA64F1}">
   <dimension ref="A1:D149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1240,13 +1240,13 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1254,13 +1254,13 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1268,13 +1268,13 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1568,13 +1568,13 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1582,13 +1582,13 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C40" t="s">
         <v>22</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1624,7 +1624,7 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
@@ -2540,7 +2540,7 @@
         <v>4</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2554,7 +2554,7 @@
         <v>6</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2576,13 +2576,13 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
+        <v>214</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2590,13 +2590,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
+        <v>217</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2678,7 +2678,7 @@
         <v>149</v>
       </c>
       <c r="B133" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>4</v>
@@ -2692,7 +2692,7 @@
         <v>149</v>
       </c>
       <c r="B134" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>6</v>
@@ -2801,10 +2801,10 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B144" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>4</v>
@@ -2815,21 +2815,21 @@
     </row>
     <row r="145" spans="1:4" ht="15.75" customHeight="1">
       <c r="A145" t="s">
+        <v>190</v>
+      </c>
+      <c r="B145" t="s">
         <v>191</v>
       </c>
-      <c r="B145" t="s">
-        <v>192</v>
-      </c>
       <c r="C145" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B146" t="s">
         <v>168</v>
@@ -2838,49 +2838,49 @@
         <v>4</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B147" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B148" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B149" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C149" t="s">
         <v>6</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/ServiceGeneratorTool/DbSchema.xlsx
+++ b/ServiceGeneratorTool/DbSchema.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\School\restaurant-management-api\ServiceGeneratorTool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Restaurant\restaurant-management-api\ServiceGeneratorTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A28950D-0826-44A9-ABBC-0D70452C7F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70C2AF6-B6CC-437A-BB39-EAFA6DB1B883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5682C2DE-D9BC-4AE6-9095-A6F08CD2E77F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="210">
   <si>
     <t>TableName</t>
   </si>
@@ -282,9 +282,6 @@
     <t>Mã giao dịch</t>
   </si>
   <si>
-    <t>Mã loại giao dịch</t>
-  </si>
-  <si>
     <t>Mã item cần tăng/giảm</t>
   </si>
   <si>
@@ -312,18 +309,6 @@
     <t>Ghi chú thêm</t>
   </si>
   <si>
-    <t>TransactionType</t>
-  </si>
-  <si>
-    <t>TranTypeId</t>
-  </si>
-  <si>
-    <t>TranTypeName</t>
-  </si>
-  <si>
-    <t>Tên loại giao dịch</t>
-  </si>
-  <si>
     <t>Mã lịch sử xuất/nhập hàng</t>
   </si>
   <si>
@@ -333,9 +318,6 @@
     <t>Ngày xuất/nhập hàng</t>
   </si>
   <si>
-    <t>Đơn vị</t>
-  </si>
-  <si>
     <t>HistoryType</t>
   </si>
   <si>
@@ -387,15 +369,9 @@
     <t>WarehouseId</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
     <t>Tên kho</t>
   </si>
   <si>
-    <t>Vị trí</t>
-  </si>
-  <si>
     <t>Mã liên kết kho</t>
   </si>
   <si>
@@ -411,9 +387,6 @@
     <t>DepartmentAddress</t>
   </si>
   <si>
-    <t>Mã đơn vị nhập</t>
-  </si>
-  <si>
     <t>MaterialIdList</t>
   </si>
   <si>
@@ -444,9 +417,6 @@
     <t>TypeKey</t>
   </si>
   <si>
-    <t>Mã loại hình</t>
-  </si>
-  <si>
     <t>TypeID</t>
   </si>
   <si>
@@ -537,15 +507,6 @@
     <t>Function</t>
   </si>
   <si>
-    <t>ParentId</t>
-  </si>
-  <si>
-    <t>Mã quyền cha (nếu để trống thì là quyền cha)</t>
-  </si>
-  <si>
-    <t>Mã chức năng của người dùng</t>
-  </si>
-  <si>
     <t>EndTime</t>
   </si>
   <si>
@@ -603,39 +564,15 @@
     <t>GrantorId</t>
   </si>
   <si>
-    <t>CanGrant</t>
-  </si>
-  <si>
-    <t>Scope</t>
-  </si>
-  <si>
     <t>ErrorDefinitionId</t>
   </si>
   <si>
     <t>ErrorCode</t>
   </si>
   <si>
-    <t>GrantorType</t>
-  </si>
-  <si>
-    <t>Ai là người có quyền cấp quyền (UserId hoặc RoleId)</t>
-  </si>
-  <si>
     <t>Chức năng được cấp</t>
   </si>
   <si>
-    <t>Có thể gán quyền này cho người khác không?</t>
-  </si>
-  <si>
-    <t>Optional</t>
-  </si>
-  <si>
-    <t>loại grantor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FunctionGrantPermissionId </t>
-  </si>
-  <si>
     <t>IsSuperAdmin</t>
   </si>
   <si>
@@ -685,6 +622,39 @@
   </si>
   <si>
     <t>FunctionCodeList</t>
+  </si>
+  <si>
+    <t>RoleCode</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>Mã cơ sở giao dịch</t>
+  </si>
+  <si>
+    <t>string?</t>
+  </si>
+  <si>
+    <t>DateTime?</t>
+  </si>
+  <si>
+    <t>Ai là người có quyền cấp quyền</t>
+  </si>
+  <si>
+    <t>Loại giao dịch</t>
+  </si>
+  <si>
+    <t>Mã loại hình (để lưu các giá trị lựa chọn)</t>
+  </si>
+  <si>
+    <t>FunctionGrantPermissionId</t>
+  </si>
+  <si>
+    <t>Chanel</t>
+  </si>
+  <si>
+    <t>Qua kênh</t>
   </si>
 </sst>
 </file>
@@ -1067,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1BB7ED-A112-494B-BC7C-AC8397CA64F1}">
-  <dimension ref="A1:D149"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1170,10 +1140,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -1198,13 +1168,13 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1226,13 +1196,13 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1240,13 +1210,13 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1254,13 +1224,13 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="D13" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1268,153 +1238,153 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>208</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>175</v>
-      </c>
-      <c r="B16" t="s">
-        <v>176</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>175</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>183</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B20" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B22" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>187</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>23</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1422,13 +1392,13 @@
         <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1436,13 +1406,13 @@
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>147</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1450,13 +1420,13 @@
         <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1464,103 +1434,103 @@
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>145</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="C32" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>169</v>
-      </c>
-      <c r="B33" t="s">
-        <v>188</v>
-      </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B34" s="3" t="s">
+    <row r="36" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="C36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>172</v>
-      </c>
-    </row>
     <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" t="s">
-        <v>168</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>23</v>
+      <c r="D38" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1568,13 +1538,13 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C39" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1582,41 +1552,41 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>211</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>178</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="C42" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" t="s">
-        <v>31</v>
+        <v>22</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1624,13 +1594,13 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1638,13 +1608,13 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" t="s">
-        <v>158</v>
+        <v>6</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1652,13 +1622,13 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1666,13 +1636,13 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="C47" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>171</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1711,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>202</v>
       </c>
       <c r="D51" t="s">
         <v>37</v>
@@ -1725,7 +1695,7 @@
         <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>39</v>
+        <v>200</v>
       </c>
       <c r="D52" t="s">
         <v>40</v>
@@ -1753,7 +1723,7 @@
         <v>43</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>202</v>
       </c>
       <c r="D54" t="s">
         <v>44</v>
@@ -1778,13 +1748,13 @@
         <v>45</v>
       </c>
       <c r="B57" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1792,13 +1762,13 @@
         <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1977,7 +1947,7 @@
         <v>38</v>
       </c>
       <c r="C73" t="s">
-        <v>39</v>
+        <v>200</v>
       </c>
       <c r="D73" t="s">
         <v>65</v>
@@ -2100,13 +2070,13 @@
         <v>77</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2128,13 +2098,13 @@
         <v>78</v>
       </c>
       <c r="B87" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>85</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2148,7 +2118,7 @@
         <v>39</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2156,13 +2126,13 @@
         <v>78</v>
       </c>
       <c r="B89" t="s">
+        <v>87</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2176,7 +2146,7 @@
         <v>4</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2190,40 +2160,40 @@
         <v>6</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="14.25" customHeight="1">
       <c r="A94" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>81</v>
@@ -2232,40 +2202,40 @@
         <v>39</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>6</v>
+        <v>202</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>83</v>
@@ -2274,436 +2244,436 @@
         <v>6</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B99" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" t="s">
-        <v>95</v>
-      </c>
-      <c r="B102" t="s">
-        <v>96</v>
+      <c r="A102" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" t="s">
-        <v>95</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>97</v>
+      <c r="A103" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B103" t="s">
+        <v>113</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" t="s">
-        <v>95</v>
+      <c r="A104" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B107" t="s">
-        <v>119</v>
+        <v>99</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>110</v>
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" t="s">
+        <v>113</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B113" s="5" t="s">
+      <c r="A113" t="s">
         <v>112</v>
       </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
       <c r="C113" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>116</v>
+      <c r="A114" t="s">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>117</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>117</v>
+        <v>191</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
         <v>118</v>
       </c>
-      <c r="B117" t="s">
-        <v>5</v>
-      </c>
       <c r="C117" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>125</v>
-      </c>
-      <c r="C119" t="s">
-        <v>4</v>
-      </c>
-      <c r="D119" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" t="s">
-        <v>124</v>
-      </c>
-      <c r="B121" t="s">
-        <v>125</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>212</v>
+        <v>193</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>116</v>
+      </c>
+      <c r="B120" t="s">
+        <v>196</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B122" t="s">
         <v>126</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>213</v>
+        <v>130</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>28</v>
+        <v>206</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B124" t="s">
-        <v>214</v>
+        <v>127</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>216</v>
+        <v>6</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>215</v>
+        <v>131</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>218</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" t="s">
-        <v>134</v>
-      </c>
-      <c r="B127" t="s">
-        <v>135</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>140</v>
-      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B128" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B129" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B130" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B131" t="s">
         <v>3</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>6</v>
+        <v>202</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
+        <v>143</v>
+      </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B133" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>149</v>
-      </c>
-      <c r="B134" t="s">
-        <v>195</v>
+        <v>154</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>152</v>
+        <v>71</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B135" t="s">
         <v>150</v>
@@ -2717,170 +2687,86 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B136" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>154</v>
+      </c>
+      <c r="B137" t="s">
+        <v>208</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B138" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" t="s">
-        <v>164</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B140" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15.75" customHeight="1">
       <c r="A141" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B141" t="s">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B142" t="s">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" t="s">
-        <v>190</v>
-      </c>
-      <c r="B144" t="s">
-        <v>202</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A145" t="s">
-        <v>190</v>
-      </c>
-      <c r="B145" t="s">
-        <v>191</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" t="s">
-        <v>190</v>
-      </c>
-      <c r="B146" t="s">
-        <v>168</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" t="s">
-        <v>190</v>
-      </c>
-      <c r="B147" t="s">
-        <v>192</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" t="s">
-        <v>190</v>
-      </c>
-      <c r="B148" t="s">
-        <v>193</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" t="s">
-        <v>190</v>
-      </c>
-      <c r="B149" t="s">
-        <v>196</v>
-      </c>
-      <c r="C149" t="s">
-        <v>6</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/ServiceGeneratorTool/DbSchema.xlsx
+++ b/ServiceGeneratorTool/DbSchema.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Restaurant\restaurant-management-api\ServiceGeneratorTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70C2AF6-B6CC-437A-BB39-EAFA6DB1B883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF8FA94-743D-4E95-B33D-AA0230281488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5682C2DE-D9BC-4AE6-9095-A6F08CD2E77F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="209">
   <si>
     <t>TableName</t>
   </si>
@@ -289,9 +289,6 @@
   </si>
   <si>
     <t>TranType</t>
-  </si>
-  <si>
-    <t>Tăng/Giảm  (C,D)</t>
   </si>
   <si>
     <t>Người thực hiện</t>
@@ -1037,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1BB7ED-A112-494B-BC7C-AC8397CA64F1}">
-  <dimension ref="A1:D142"/>
+  <dimension ref="A1:D141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1140,7 +1137,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -1168,13 +1165,13 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>122</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1196,13 +1193,13 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1210,13 +1207,13 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1224,13 +1221,13 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1238,13 +1235,13 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1252,13 +1249,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1266,32 +1263,32 @@
         <v>20</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" t="s">
         <v>162</v>
       </c>
-      <c r="B18" t="s">
-        <v>163</v>
-      </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -1305,77 +1302,77 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C23" t="s">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
@@ -1384,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1392,13 +1389,13 @@
         <v>18</v>
       </c>
       <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
         <v>122</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1426,7 +1423,7 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1434,13 +1431,13 @@
         <v>18</v>
       </c>
       <c r="B30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
         <v>136</v>
-      </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1454,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1462,35 +1459,35 @@
         <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C32" t="s">
         <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -1501,7 +1498,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>9</v>
@@ -1530,7 +1527,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1538,13 +1535,13 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="C39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1566,13 +1563,13 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1580,13 +1577,13 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C42" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1600,7 +1597,7 @@
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1608,7 +1605,7 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -1636,7 +1633,7 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -1681,7 +1678,7 @@
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D51" t="s">
         <v>37</v>
@@ -1695,7 +1692,7 @@
         <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D52" t="s">
         <v>40</v>
@@ -1723,7 +1720,7 @@
         <v>43</v>
       </c>
       <c r="C54" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D54" t="s">
         <v>44</v>
@@ -1748,13 +1745,13 @@
         <v>45</v>
       </c>
       <c r="B57" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
         <v>150</v>
-      </c>
-      <c r="C57" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1762,13 +1759,13 @@
         <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1947,7 +1944,7 @@
         <v>38</v>
       </c>
       <c r="C73" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D73" t="s">
         <v>65</v>
@@ -2070,13 +2067,13 @@
         <v>77</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2104,7 +2101,7 @@
         <v>6</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2126,13 +2123,13 @@
         <v>78</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2140,66 +2137,66 @@
         <v>78</v>
       </c>
       <c r="B90" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" t="s">
-        <v>78</v>
-      </c>
-      <c r="B91" t="s">
-        <v>83</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D91" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="C92" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="14.25" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A94" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>95</v>
@@ -2207,251 +2204,251 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>202</v>
+        <v>6</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
+      </c>
+      <c r="B98" t="s">
+        <v>96</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B99" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>201</v>
+      <c r="B101" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
+      </c>
+      <c r="B102" t="s">
+        <v>112</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B103" t="s">
-        <v>113</v>
+        <v>98</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C110" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D110" s="2" t="s">
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" t="s">
-        <v>112</v>
-      </c>
-      <c r="B114" t="s">
-        <v>117</v>
-      </c>
-      <c r="C114" t="s">
-        <v>4</v>
-      </c>
-      <c r="D114" t="s">
-        <v>157</v>
+        <v>116</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" t="s">
+        <v>116</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>117</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>191</v>
@@ -2459,7 +2456,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" t="s">
         <v>118</v>
@@ -2468,82 +2465,82 @@
         <v>6</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B118" t="s">
-        <v>119</v>
+        <v>192</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>6</v>
+        <v>194</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>28</v>
+        <v>193</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B119" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>195</v>
+        <v>6</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" t="s">
-        <v>116</v>
-      </c>
-      <c r="B120" t="s">
         <v>196</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>197</v>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" t="s">
+        <v>125</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>130</v>
+        <v>205</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>206</v>
+        <v>130</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B124" t="s">
         <v>127</v>
@@ -2552,131 +2549,131 @@
         <v>6</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" t="s">
-        <v>125</v>
-      </c>
-      <c r="B126" t="s">
-        <v>3</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>132</v>
-      </c>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
     </row>
     <row r="127" spans="1:4">
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
+      <c r="A127" t="s">
+        <v>138</v>
+      </c>
+      <c r="B127" t="s">
+        <v>178</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B128" t="s">
         <v>179</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
+        <v>138</v>
+      </c>
+      <c r="B129" t="s">
         <v>139</v>
       </c>
-      <c r="B129" t="s">
-        <v>180</v>
-      </c>
       <c r="C129" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B130" t="s">
-        <v>140</v>
+        <v>3</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" t="s">
-        <v>139</v>
-      </c>
-      <c r="B131" t="s">
-        <v>3</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>153</v>
+      </c>
+      <c r="B132" t="s">
+        <v>154</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>154</v>
-      </c>
-      <c r="B133" t="s">
-        <v>155</v>
+        <v>153</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>156</v>
+        <v>71</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>154</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>70</v>
+        <v>153</v>
+      </c>
+      <c r="B134" t="s">
+        <v>149</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B135" t="s">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>6</v>
@@ -2687,86 +2684,72 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>207</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B137" t="s">
-        <v>208</v>
+        <v>116</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" t="s">
-        <v>154</v>
-      </c>
-      <c r="B138" t="s">
-        <v>117</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>176</v>
+      </c>
+      <c r="B139" t="s">
+        <v>206</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15.75" customHeight="1">
       <c r="A140" t="s">
+        <v>176</v>
+      </c>
+      <c r="B140" t="s">
         <v>177</v>
       </c>
-      <c r="B140" t="s">
-        <v>207</v>
-      </c>
       <c r="C140" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="15.75" customHeight="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B141" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" t="s">
-        <v>177</v>
-      </c>
-      <c r="B142" t="s">
-        <v>175</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/ServiceGeneratorTool/DbSchema.xlsx
+++ b/ServiceGeneratorTool/DbSchema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Restaurant\restaurant-management-api\ServiceGeneratorTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF8FA94-743D-4E95-B33D-AA0230281488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A034180-D1E8-4CFE-9D38-94380619D342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5682C2DE-D9BC-4AE6-9095-A6F08CD2E77F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="206">
   <si>
     <t>TableName</t>
   </si>
@@ -601,15 +601,6 @@
   </si>
   <si>
     <t>Tên cơ sở</t>
-  </si>
-  <si>
-    <t>ManagerId</t>
-  </si>
-  <si>
-    <t>Id quản lý</t>
-  </si>
-  <si>
-    <t>int?</t>
   </si>
   <si>
     <t>DepartmentPhoto</t>
@@ -738,9 +729,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -778,7 +769,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -884,7 +875,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1026,7 +1017,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1034,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1BB7ED-A112-494B-BC7C-AC8397CA64F1}">
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="L108" sqref="L108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1137,7 +1128,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -1224,7 +1215,7 @@
         <v>182</v>
       </c>
       <c r="C13" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D13" t="s">
         <v>185</v>
@@ -1252,7 +1243,7 @@
         <v>146</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>147</v>
@@ -1266,7 +1257,7 @@
         <v>159</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>148</v>
@@ -1364,7 +1355,7 @@
         <v>166</v>
       </c>
       <c r="C24" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D24" t="s">
         <v>172</v>
@@ -1605,7 +1596,7 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -1633,7 +1624,7 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -1678,7 +1669,7 @@
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D51" t="s">
         <v>37</v>
@@ -1692,7 +1683,7 @@
         <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D52" t="s">
         <v>40</v>
@@ -1720,7 +1711,7 @@
         <v>43</v>
       </c>
       <c r="C54" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D54" t="s">
         <v>44</v>
@@ -1944,7 +1935,7 @@
         <v>38</v>
       </c>
       <c r="C73" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D73" t="s">
         <v>65</v>
@@ -2101,7 +2092,7 @@
         <v>6</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2210,7 +2201,7 @@
         <v>3</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>92</v>
@@ -2255,7 +2246,7 @@
         <v>4</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2476,24 +2467,24 @@
         <v>192</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>194</v>
+        <v>6</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
-      <c r="A119" t="s">
-        <v>115</v>
-      </c>
-      <c r="B119" t="s">
-        <v>195</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>196</v>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120" t="s">
+        <v>125</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2501,13 +2492,13 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>129</v>
+        <v>202</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2515,13 +2506,13 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>205</v>
+        <v>130</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2529,13 +2520,13 @@
         <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2543,45 +2534,45 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>127</v>
+        <v>3</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>6</v>
+        <v>198</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" t="s">
-        <v>124</v>
-      </c>
-      <c r="B125" t="s">
-        <v>3</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>131</v>
-      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
+      <c r="A126" t="s">
+        <v>138</v>
+      </c>
+      <c r="B126" t="s">
+        <v>178</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>138</v>
       </c>
       <c r="B127" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2589,13 +2580,13 @@
         <v>138</v>
       </c>
       <c r="B128" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2603,55 +2594,55 @@
         <v>138</v>
       </c>
       <c r="B129" t="s">
-        <v>139</v>
+        <v>3</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>6</v>
+        <v>198</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" t="s">
-        <v>138</v>
-      </c>
-      <c r="B130" t="s">
-        <v>3</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D130" s="2" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>153</v>
+      </c>
+      <c r="B131" t="s">
+        <v>154</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>153</v>
       </c>
-      <c r="B132" t="s">
-        <v>154</v>
+      <c r="B132" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>153</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>70</v>
+      <c r="B133" t="s">
+        <v>149</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2659,13 +2650,13 @@
         <v>153</v>
       </c>
       <c r="B134" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2673,13 +2664,13 @@
         <v>153</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>204</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2687,68 +2678,54 @@
         <v>153</v>
       </c>
       <c r="B136" t="s">
-        <v>207</v>
+        <v>116</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" t="s">
-        <v>153</v>
-      </c>
-      <c r="B137" t="s">
-        <v>116</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D137" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>176</v>
+      </c>
+      <c r="B138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15.75" customHeight="1">
       <c r="A139" t="s">
         <v>176</v>
       </c>
       <c r="B139" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="15.75" customHeight="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>176</v>
       </c>
       <c r="B140" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" t="s">
-        <v>176</v>
-      </c>
-      <c r="B141" t="s">
-        <v>174</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D141" s="2" t="s">
         <v>180</v>
       </c>
     </row>

--- a/ServiceGeneratorTool/DbSchema.xlsx
+++ b/ServiceGeneratorTool/DbSchema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Restaurant\restaurant-management-api\ServiceGeneratorTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A034180-D1E8-4CFE-9D38-94380619D342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDA0656-77F1-4F0D-A85D-E0CFEE692E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5682C2DE-D9BC-4AE6-9095-A6F08CD2E77F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="202">
   <si>
     <t>TableName</t>
   </si>
@@ -171,12 +171,6 @@
     <t>Mã hóa đơn</t>
   </si>
   <si>
-    <t>CreatedAt</t>
-  </si>
-  <si>
-    <t>Ngày tạo hóa đơn</t>
-  </si>
-  <si>
     <t>TotalAmount</t>
   </si>
   <si>
@@ -276,9 +270,6 @@
     <t>RelatedEntityId</t>
   </si>
   <si>
-    <t>CreatedBy</t>
-  </si>
-  <si>
     <t>Mã giao dịch</t>
   </si>
   <si>
@@ -291,9 +282,6 @@
     <t>TranType</t>
   </si>
   <si>
-    <t>Người thực hiện</t>
-  </si>
-  <si>
     <t>HistoryId</t>
   </si>
   <si>
@@ -399,9 +387,6 @@
     <t>Nội dung OTP</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>TypeId</t>
   </si>
   <si>
@@ -643,6 +628,9 @@
   </si>
   <si>
     <t>Qua kênh</t>
+  </si>
+  <si>
+    <t>ObjType</t>
   </si>
 </sst>
 </file>
@@ -1025,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1BB7ED-A112-494B-BC7C-AC8397CA64F1}">
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="L108" sqref="L108"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1128,7 +1116,7 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -1156,13 +1144,13 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1184,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1198,13 +1186,13 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1212,13 +1200,13 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C13" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D13" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1226,13 +1214,13 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1240,13 +1228,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1254,32 +1242,32 @@
         <v>20</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
         <v>162</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -1293,77 +1281,77 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C23" t="s">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" t="s">
         <v>161</v>
       </c>
-      <c r="B24" t="s">
-        <v>166</v>
-      </c>
       <c r="C24" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D24" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
@@ -1372,7 +1360,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1380,13 +1368,13 @@
         <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1414,7 +1402,7 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1422,13 +1410,13 @@
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1436,13 +1424,13 @@
         <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1450,35 +1438,35 @@
         <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C32" t="s">
         <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B34" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -1489,7 +1477,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>9</v>
@@ -1518,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1526,13 +1514,13 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1554,13 +1542,13 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1568,13 +1556,13 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C42" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1588,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1596,7 +1584,7 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -1624,7 +1612,7 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -1669,7 +1657,7 @@
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D51" t="s">
         <v>37</v>
@@ -1683,7 +1671,7 @@
         <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D52" t="s">
         <v>40</v>
@@ -1711,7 +1699,7 @@
         <v>43</v>
       </c>
       <c r="C54" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D54" t="s">
         <v>44</v>
@@ -1736,13 +1724,13 @@
         <v>45</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1750,13 +1738,13 @@
         <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1767,7 +1755,7 @@
         <v>48</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D59" t="s">
         <v>49</v>
@@ -1777,235 +1765,235 @@
       <c r="A60" t="s">
         <v>45</v>
       </c>
-      <c r="B60" t="s">
-        <v>50</v>
+      <c r="B60" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>45</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>70</v>
+      <c r="B61" t="s">
+        <v>50</v>
       </c>
       <c r="C61" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>45</v>
-      </c>
-      <c r="B62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
         <v>52</v>
       </c>
-      <c r="C62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="B63" t="s">
         <v>53</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C64" t="s">
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B65" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C65" t="s">
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C66" t="s">
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B67" t="s">
         <v>57</v>
       </c>
       <c r="C67" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D67" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
-        <v>54</v>
-      </c>
-      <c r="B68" t="s">
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
         <v>59</v>
       </c>
-      <c r="C68" t="s">
-        <v>39</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="B69" t="s">
         <v>60</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" t="s">
         <v>62</v>
-      </c>
-      <c r="C70" t="s">
-        <v>4</v>
-      </c>
-      <c r="D70" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B72" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>191</v>
       </c>
       <c r="D72" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
-        <v>61</v>
-      </c>
-      <c r="B73" t="s">
-        <v>38</v>
-      </c>
-      <c r="C73" t="s">
-        <v>196</v>
-      </c>
-      <c r="D73" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>64</v>
+      </c>
+      <c r="B74" t="s">
         <v>65</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B75" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C75" t="s">
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C76" t="s">
         <v>4</v>
       </c>
       <c r="D76" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B77" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C77" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D77" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
-        <v>66</v>
-      </c>
-      <c r="B78" t="s">
-        <v>57</v>
-      </c>
-      <c r="C78" t="s">
-        <v>39</v>
-      </c>
-      <c r="D78" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>75</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>71</v>
@@ -2013,24 +2001,24 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>6</v>
@@ -2041,352 +2029,338 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
+        <v>75</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>76</v>
+      </c>
+      <c r="B85" t="s">
         <v>77</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
-        <v>77</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>145</v>
+      <c r="C85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B86" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>84</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
+        <v>76</v>
+      </c>
+      <c r="B87" t="s">
         <v>78</v>
       </c>
-      <c r="B87" t="s">
-        <v>87</v>
-      </c>
       <c r="C87" s="2" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>201</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B88" t="s">
         <v>80</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" t="s">
-        <v>78</v>
-      </c>
-      <c r="B89" t="s">
         <v>82</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D89" s="2" t="s">
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B90" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" t="s">
-        <v>78</v>
-      </c>
-      <c r="B90" t="s">
-        <v>83</v>
-      </c>
       <c r="C90" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A91" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B92" t="s">
-        <v>89</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A93" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
+      </c>
+      <c r="B95" t="s">
+        <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>198</v>
+        <v>4</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B98" t="s">
-        <v>96</v>
+        <v>94</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>116</v>
+        <v>94</v>
+      </c>
+      <c r="B99" t="s">
+        <v>108</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>197</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B102" t="s">
-        <v>112</v>
+        <v>94</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>105</v>
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>108</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B109" s="5" t="s">
+      <c r="A109" t="s">
         <v>107</v>
       </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
       <c r="C109" s="2" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" t="s">
-        <v>111</v>
-      </c>
-      <c r="B111" t="s">
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>107</v>
+      </c>
+      <c r="B110" t="s">
         <v>112</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>110</v>
+      <c r="C110" t="s">
+        <v>4</v>
+      </c>
+      <c r="D110" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2394,13 +2368,13 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2408,325 +2382,297 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>116</v>
-      </c>
-      <c r="C113" t="s">
-        <v>4</v>
-      </c>
-      <c r="D113" t="s">
-        <v>156</v>
+        <v>113</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>111</v>
+      </c>
+      <c r="B114" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B115" t="s">
-        <v>116</v>
+        <v>187</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
-        <v>115</v>
-      </c>
-      <c r="B116" t="s">
-        <v>117</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>201</v>
       </c>
       <c r="B117" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>115</v>
+        <v>201</v>
       </c>
       <c r="B118" t="s">
-        <v>192</v>
+        <v>123</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>201</v>
+      </c>
+      <c r="B119" t="s">
+        <v>121</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="B120" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="B121" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>6</v>
+        <v>193</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" t="s">
-        <v>124</v>
-      </c>
-      <c r="B122" t="s">
-        <v>126</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B123" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B124" t="s">
-        <v>3</v>
+        <v>174</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>198</v>
+        <v>6</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
+      <c r="A125" t="s">
+        <v>133</v>
+      </c>
+      <c r="B125" t="s">
+        <v>134</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B126" t="s">
-        <v>178</v>
+        <v>3</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" t="s">
-        <v>138</v>
-      </c>
-      <c r="B127" t="s">
-        <v>179</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B128" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>138</v>
-      </c>
-      <c r="B129" t="s">
-        <v>3</v>
+        <v>148</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>198</v>
+        <v>6</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>142</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>148</v>
+      </c>
+      <c r="B130" t="s">
+        <v>144</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B131" t="s">
-        <v>154</v>
+        <v>5</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>153</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>70</v>
+        <v>148</v>
+      </c>
+      <c r="B132" t="s">
+        <v>199</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>71</v>
+        <v>200</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B133" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" t="s">
-        <v>153</v>
-      </c>
-      <c r="B134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D134" s="2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B135" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15.75" customHeight="1">
       <c r="A136" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B136" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" t="s">
-        <v>176</v>
-      </c>
-      <c r="B138" t="s">
-        <v>203</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A139" t="s">
-        <v>176</v>
-      </c>
-      <c r="B139" t="s">
-        <v>177</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" t="s">
-        <v>176</v>
-      </c>
-      <c r="B140" t="s">
-        <v>174</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>180</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>171</v>
+      </c>
+      <c r="B137" t="s">
+        <v>169</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
